--- a/data/china_map_data.xlsx
+++ b/data/china_map_data.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>新疆维吾尔自治区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,27 +154,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>colorId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面积(万平方千米)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口比重(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.粉红；2.蓝；3.黄；4绿；5.红</t>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min00_1.新疆.png</t>
+  </si>
+  <si>
+    <t>min01_2.西藏.png</t>
+  </si>
+  <si>
+    <t>min02_3.蒙古.png</t>
+  </si>
+  <si>
+    <t>min03_4.青海.png</t>
+  </si>
+  <si>
+    <t>min04_5.四川.png</t>
+  </si>
+  <si>
+    <t>min05_6.黑龙江.png</t>
+  </si>
+  <si>
+    <t>min06_7.甘肃.png</t>
+  </si>
+  <si>
+    <t>min07_8.云南.png</t>
+  </si>
+  <si>
+    <t>min08_9.广西.png</t>
+  </si>
+  <si>
+    <t>min09_10.湖南.png</t>
+  </si>
+  <si>
+    <t>min10_11.河北.png</t>
+  </si>
+  <si>
+    <t>min11_12.陕西.png</t>
+  </si>
+  <si>
+    <t>min12_13.吉林.png</t>
+  </si>
+  <si>
+    <t>min13_14.湖南.png</t>
+  </si>
+  <si>
+    <t>min14_15.广东.png</t>
+  </si>
+  <si>
+    <t>min15_16.贵州.png</t>
+  </si>
+  <si>
+    <t>min16_17.江西.png</t>
+  </si>
+  <si>
+    <t>min17_18.河南.png</t>
+  </si>
+  <si>
+    <t>min18_19.山西.png</t>
+  </si>
+  <si>
+    <t>min19_20.山东.png</t>
+  </si>
+  <si>
+    <t>min20_21.辽宁.png</t>
+  </si>
+  <si>
+    <t>min21_22.安徽.png</t>
+  </si>
+  <si>
+    <t>min22_23.福建.png</t>
+  </si>
+  <si>
+    <t>min23_24.江苏.png</t>
+  </si>
+  <si>
+    <t>min24_25.浙江.png</t>
+  </si>
+  <si>
+    <t>min25_26.重庆.png</t>
+  </si>
+  <si>
+    <t>min26_27.宁夏.png</t>
+  </si>
+  <si>
+    <t>min27_28.台湾.png</t>
+  </si>
+  <si>
+    <t>min28_29.海南.png</t>
+  </si>
+  <si>
+    <t>min29_30.北京.png</t>
+  </si>
+  <si>
+    <t>min30_31.天津.png</t>
+  </si>
+  <si>
+    <t>min31_32.上海.png</t>
+  </si>
+  <si>
+    <t>min32_33.香港.png</t>
+  </si>
+  <si>
+    <t>min33_34.澳门.png</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>populationRate</t>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,39 +669,51 @@
     <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -601,13 +727,28 @@
       <c r="F2">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -621,13 +762,28 @@
       <c r="F3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -641,13 +797,28 @@
       <c r="F4">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -661,13 +832,28 @@
       <c r="F5">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -681,13 +867,28 @@
       <c r="F6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -701,13 +902,28 @@
       <c r="F7">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -721,13 +937,28 @@
       <c r="F8">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -741,13 +972,28 @@
       <c r="F9">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -761,13 +1007,28 @@
       <c r="F10">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -781,13 +1042,28 @@
       <c r="F11">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -801,13 +1077,28 @@
       <c r="F12">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -821,13 +1112,28 @@
       <c r="F13">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -841,13 +1147,28 @@
       <c r="F14">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -861,13 +1182,28 @@
       <c r="F15">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -881,13 +1217,28 @@
       <c r="F16">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -901,13 +1252,28 @@
       <c r="F17">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -921,13 +1287,28 @@
       <c r="F18">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -941,13 +1322,28 @@
       <c r="F19">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -961,13 +1357,28 @@
       <c r="F20">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -981,13 +1392,28 @@
       <c r="F21">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1001,13 +1427,28 @@
       <c r="F22">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1021,13 +1462,28 @@
       <c r="F23">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1041,13 +1497,28 @@
       <c r="F24">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1061,13 +1532,28 @@
       <c r="F25">
         <v>5.87</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1081,13 +1567,28 @@
       <c r="F26">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1101,13 +1602,28 @@
       <c r="F27">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1121,13 +1637,28 @@
       <c r="F28">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1141,13 +1672,28 @@
       <c r="F29">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1161,13 +1707,28 @@
       <c r="F30">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1181,13 +1742,28 @@
       <c r="F31">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1201,13 +1777,28 @@
       <c r="F32">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1221,13 +1812,28 @@
       <c r="F33">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1241,13 +1847,28 @@
       <c r="F34">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1260,6 +1881,21 @@
       </c>
       <c r="F35">
         <v>0.36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/china_map_data.xlsx
+++ b/data/china_map_data.xlsx
@@ -162,108 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min00_1.新疆.png</t>
-  </si>
-  <si>
-    <t>min01_2.西藏.png</t>
-  </si>
-  <si>
-    <t>min02_3.蒙古.png</t>
-  </si>
-  <si>
-    <t>min03_4.青海.png</t>
-  </si>
-  <si>
-    <t>min04_5.四川.png</t>
-  </si>
-  <si>
-    <t>min05_6.黑龙江.png</t>
-  </si>
-  <si>
-    <t>min06_7.甘肃.png</t>
-  </si>
-  <si>
-    <t>min07_8.云南.png</t>
-  </si>
-  <si>
-    <t>min08_9.广西.png</t>
-  </si>
-  <si>
-    <t>min09_10.湖南.png</t>
-  </si>
-  <si>
-    <t>min10_11.河北.png</t>
-  </si>
-  <si>
-    <t>min11_12.陕西.png</t>
-  </si>
-  <si>
-    <t>min12_13.吉林.png</t>
-  </si>
-  <si>
-    <t>min13_14.湖南.png</t>
-  </si>
-  <si>
-    <t>min14_15.广东.png</t>
-  </si>
-  <si>
-    <t>min15_16.贵州.png</t>
-  </si>
-  <si>
-    <t>min16_17.江西.png</t>
-  </si>
-  <si>
-    <t>min17_18.河南.png</t>
-  </si>
-  <si>
-    <t>min18_19.山西.png</t>
-  </si>
-  <si>
-    <t>min19_20.山东.png</t>
-  </si>
-  <si>
-    <t>min20_21.辽宁.png</t>
-  </si>
-  <si>
-    <t>min21_22.安徽.png</t>
-  </si>
-  <si>
-    <t>min22_23.福建.png</t>
-  </si>
-  <si>
-    <t>min23_24.江苏.png</t>
-  </si>
-  <si>
-    <t>min24_25.浙江.png</t>
-  </si>
-  <si>
-    <t>min25_26.重庆.png</t>
-  </si>
-  <si>
-    <t>min26_27.宁夏.png</t>
-  </si>
-  <si>
-    <t>min27_28.台湾.png</t>
-  </si>
-  <si>
-    <t>min28_29.海南.png</t>
-  </si>
-  <si>
-    <t>min29_30.北京.png</t>
-  </si>
-  <si>
-    <t>min30_31.天津.png</t>
-  </si>
-  <si>
-    <t>min31_32.上海.png</t>
-  </si>
-  <si>
-    <t>min32_33.香港.png</t>
-  </si>
-  <si>
-    <t>min33_34.澳门.png</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -294,6 +192,108 @@
   <si>
     <t>y2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map__0000s_0000_1.新疆.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0001_2.西藏.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0002_3.蒙古.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0003_4.青海.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0004_5.四川.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0005_6.黑龙江.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0006_7.甘肃.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0007_8.云南.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0008_9.广西.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0009_10.湖南.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0010_11.河北.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0011_12.陕西.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0012_13.吉林.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0013_14.湖南.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0014_15.广东.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0015_16.贵州.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0016_17.江西.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0017_18.河南.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0018_19.山西.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0019_20.山东.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0020_21.辽宁.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0021_22.安徽.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0022_23.福建.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0023_24.江苏.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0024_25.浙江.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0025_26.重庆.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0026_27.宁夏.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0027_28.台湾.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0028_29.海南.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0029_30.北京.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0030_31.天津.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0031_32.上海.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0032_33.香港.png</t>
+  </si>
+  <si>
+    <t>map__0000s_0033_34.澳门.png</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,37 +675,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -728,7 +728,7 @@
         <v>1.63</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>0.21</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>1.84</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0.42</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>2.86</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>3.43</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>3.44</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>5.36</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>2.79</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>7.79</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>2.59</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>3.33</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>7.02</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>2.67</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>7.15</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>3.27</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>2.75</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>5.87</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>2.15</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>0.47</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>1.74</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0.65</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>1.46</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0.97</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>1.72</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0.36</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H35">
         <v>1</v>

--- a/data/china_map_data.xlsx
+++ b/data/china_map_data.xlsx
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,9 +668,9 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -693,19 +693,19 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -727,20 +727,20 @@
       <c r="F2">
         <v>1.63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>123</v>
+      </c>
+      <c r="I2">
+        <v>322</v>
+      </c>
+      <c r="J2">
+        <v>310</v>
+      </c>
+      <c r="K2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -762,20 +762,20 @@
       <c r="F3">
         <v>0.21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>129</v>
+      </c>
+      <c r="H3">
+        <v>280</v>
+      </c>
+      <c r="I3">
+        <v>349</v>
+      </c>
+      <c r="J3">
+        <v>401</v>
+      </c>
+      <c r="K3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -797,20 +797,20 @@
       <c r="F4">
         <v>1.84</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>326</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>630</v>
+      </c>
+      <c r="J4">
+        <v>270</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -832,20 +832,20 @@
       <c r="F5">
         <v>0.42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>248</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>390</v>
+      </c>
+      <c r="J5">
+        <v>342</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -867,20 +867,20 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>327</v>
+      </c>
+      <c r="H6">
+        <v>310</v>
+      </c>
+      <c r="I6">
+        <v>448</v>
+      </c>
+      <c r="J6">
+        <v>413</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -902,20 +902,20 @@
       <c r="F7">
         <v>2.86</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>583</v>
+      </c>
+      <c r="H7">
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <v>733</v>
+      </c>
+      <c r="J7">
+        <v>196</v>
+      </c>
+      <c r="K7" t="s">
         <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -937,20 +937,20 @@
       <c r="F8">
         <v>1.91</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>283</v>
+      </c>
+      <c r="H8">
+        <v>205</v>
+      </c>
+      <c r="I8">
+        <v>451</v>
+      </c>
+      <c r="J8">
+        <v>328</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -972,20 +972,20 @@
       <c r="F9">
         <v>3.43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>332</v>
+      </c>
+      <c r="H9">
+        <v>374</v>
+      </c>
+      <c r="I9">
+        <v>423</v>
+      </c>
+      <c r="J9">
+        <v>475</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1007,20 +1007,20 @@
       <c r="F10">
         <v>3.44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>404</v>
+      </c>
+      <c r="H10">
+        <v>406</v>
+      </c>
+      <c r="I10">
+        <v>486</v>
+      </c>
+      <c r="J10">
+        <v>469</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1042,20 +1042,20 @@
       <c r="F11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>451</v>
+      </c>
+      <c r="H11">
+        <v>358</v>
+      </c>
+      <c r="I11">
+        <v>509</v>
+      </c>
+      <c r="J11">
+        <v>429</v>
+      </c>
+      <c r="K11" t="s">
         <v>54</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1077,20 +1077,20 @@
       <c r="F12">
         <v>5.36</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>502</v>
+      </c>
+      <c r="H12">
+        <v>207</v>
+      </c>
+      <c r="I12">
+        <v>569</v>
+      </c>
+      <c r="J12">
+        <v>290</v>
+      </c>
+      <c r="K12" t="s">
         <v>55</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1112,20 +1112,20 @@
       <c r="F13">
         <v>2.79</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>416</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13">
+        <v>475</v>
+      </c>
+      <c r="J13">
+        <v>341</v>
+      </c>
+      <c r="K13" t="s">
         <v>56</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1147,20 +1147,20 @@
       <c r="F14">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>587</v>
+      </c>
+      <c r="H14">
+        <v>162</v>
+      </c>
+      <c r="I14">
+        <v>688</v>
+      </c>
+      <c r="J14">
+        <v>228</v>
+      </c>
+      <c r="K14" t="s">
         <v>57</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1182,20 +1182,20 @@
       <c r="F15">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>444</v>
+      </c>
+      <c r="H15">
+        <v>319</v>
+      </c>
+      <c r="I15">
+        <v>528</v>
+      </c>
+      <c r="J15">
+        <v>375</v>
+      </c>
+      <c r="K15" t="s">
         <v>58</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1217,20 +1217,20 @@
       <c r="F16">
         <v>7.79</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>461</v>
+      </c>
+      <c r="H16">
+        <v>416</v>
+      </c>
+      <c r="I16">
+        <v>538</v>
+      </c>
+      <c r="J16">
+        <v>476</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1252,20 +1252,20 @@
       <c r="F17">
         <v>2.59</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>395</v>
+      </c>
+      <c r="H17">
+        <v>375</v>
+      </c>
+      <c r="I17">
+        <v>459</v>
+      </c>
+      <c r="J17">
+        <v>432</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1287,20 +1287,20 @@
       <c r="F18">
         <v>3.33</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>502</v>
+      </c>
+      <c r="H18">
+        <v>362</v>
+      </c>
+      <c r="I18">
+        <v>554</v>
+      </c>
+      <c r="J18">
+        <v>433</v>
+      </c>
+      <c r="K18" t="s">
         <v>61</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1322,20 +1322,20 @@
       <c r="F19">
         <v>7.02</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>465</v>
+      </c>
+      <c r="H19">
+        <v>283</v>
+      </c>
+      <c r="I19">
+        <v>533</v>
+      </c>
+      <c r="J19">
+        <v>345</v>
+      </c>
+      <c r="K19" t="s">
         <v>62</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1357,20 +1357,20 @@
       <c r="F20">
         <v>2.67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>467</v>
+      </c>
+      <c r="H20">
+        <v>230</v>
+      </c>
+      <c r="I20">
+        <v>515</v>
+      </c>
+      <c r="J20">
+        <v>309</v>
+      </c>
+      <c r="K20" t="s">
         <v>63</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1392,20 +1392,20 @@
       <c r="F21">
         <v>7.15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>515</v>
+      </c>
+      <c r="H21">
+        <v>263</v>
+      </c>
+      <c r="I21">
+        <v>596</v>
+      </c>
+      <c r="J21">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
         <v>64</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1427,20 +1427,20 @@
       <c r="F22">
         <v>3.27</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>559</v>
+      </c>
+      <c r="H22">
+        <v>198</v>
+      </c>
+      <c r="I22">
+        <v>631</v>
+      </c>
+      <c r="J22">
+        <v>256</v>
+      </c>
+      <c r="K22" t="s">
         <v>65</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1462,20 +1462,20 @@
       <c r="F23">
         <v>4.4400000000000004</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>514</v>
+      </c>
+      <c r="H23">
+        <v>308</v>
+      </c>
+      <c r="I23">
+        <v>564</v>
+      </c>
+      <c r="J23">
+        <v>371</v>
+      </c>
+      <c r="K23" t="s">
         <v>66</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1497,20 +1497,20 @@
       <c r="F24">
         <v>2.75</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>527</v>
+      </c>
+      <c r="H24">
+        <v>383</v>
+      </c>
+      <c r="I24">
+        <v>573</v>
+      </c>
+      <c r="J24">
+        <v>442</v>
+      </c>
+      <c r="K24" t="s">
         <v>67</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1532,20 +1532,20 @@
       <c r="F25">
         <v>5.87</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>535</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>591</v>
+      </c>
+      <c r="J25">
+        <v>356</v>
+      </c>
+      <c r="K25" t="s">
         <v>68</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1567,20 +1567,20 @@
       <c r="F26">
         <v>4.0599999999999996</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <v>549</v>
+      </c>
+      <c r="H26">
+        <v>346</v>
+      </c>
+      <c r="I26">
+        <v>595</v>
+      </c>
+      <c r="J26">
+        <v>400</v>
+      </c>
+      <c r="K26" t="s">
         <v>69</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1602,20 +1602,20 @@
       <c r="F27">
         <v>2.15</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27">
+        <v>415</v>
+      </c>
+      <c r="H27">
+        <v>336</v>
+      </c>
+      <c r="I27">
+        <v>466</v>
+      </c>
+      <c r="J27">
+        <v>385</v>
+      </c>
+      <c r="K27" t="s">
         <v>70</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1637,20 +1637,20 @@
       <c r="F28">
         <v>0.47</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>400</v>
+      </c>
+      <c r="H28">
+        <v>245</v>
+      </c>
+      <c r="I28">
+        <v>438</v>
+      </c>
+      <c r="J28">
+        <v>300</v>
+      </c>
+      <c r="K28" t="s">
         <v>71</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1672,20 +1672,20 @@
       <c r="F29">
         <v>1.74</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29">
+        <v>572</v>
+      </c>
+      <c r="H29">
+        <v>420</v>
+      </c>
+      <c r="I29">
+        <v>591</v>
+      </c>
+      <c r="J29">
+        <v>465</v>
+      </c>
+      <c r="K29" t="s">
         <v>72</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1707,20 +1707,20 @@
       <c r="F30">
         <v>0.65</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <v>445</v>
+      </c>
+      <c r="H30">
+        <v>486</v>
+      </c>
+      <c r="I30">
+        <v>473</v>
+      </c>
+      <c r="J30">
+        <v>510</v>
+      </c>
+      <c r="K30" t="s">
         <v>73</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1742,20 +1742,20 @@
       <c r="F31">
         <v>1.46</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>519</v>
+      </c>
+      <c r="H31">
+        <v>228</v>
+      </c>
+      <c r="I31">
+        <v>544</v>
+      </c>
+      <c r="J31">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
         <v>74</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1777,20 +1777,20 @@
       <c r="F32">
         <v>0.97</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>534</v>
+      </c>
+      <c r="H32">
+        <v>237</v>
+      </c>
+      <c r="I32">
+        <v>551</v>
+      </c>
+      <c r="J32">
+        <v>528</v>
+      </c>
+      <c r="K32" t="s">
         <v>75</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1812,20 +1812,20 @@
       <c r="F33">
         <v>1.72</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>579</v>
+      </c>
+      <c r="H33">
+        <v>343</v>
+      </c>
+      <c r="I33">
+        <v>598</v>
+      </c>
+      <c r="J33">
+        <v>356</v>
+      </c>
+      <c r="K33" t="s">
         <v>76</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1847,20 +1847,20 @@
       <c r="F34">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>501</v>
+      </c>
+      <c r="H34">
+        <v>457</v>
+      </c>
+      <c r="I34">
+        <v>503</v>
+      </c>
+      <c r="J34">
+        <v>458</v>
+      </c>
+      <c r="K34" t="s">
         <v>77</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1882,24 +1882,24 @@
       <c r="F35">
         <v>0.36</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>505</v>
+      </c>
+      <c r="H35">
+        <v>457</v>
+      </c>
+      <c r="I35">
+        <v>506</v>
+      </c>
+      <c r="J35">
+        <v>458</v>
+      </c>
+      <c r="K35" t="s">
         <v>78</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:E35">
+  <sortState ref="B2:I35">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
